--- a/bmo_backend/media/transaction_summary.xlsx
+++ b/bmo_backend/media/transaction_summary.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E47"/>
+  <dimension ref="A2:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,147 +446,147 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sign In</t>
+          <t>Amend Deposit Content Counters</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Return Sign In</t>
+          <t>BMO Debit Card Bulk Order Request</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Clearing List Received</t>
+          <t>Open or Close Branch</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BMO Debit Card Bulk Order Request</t>
+          <t>Batch Totals Update</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cash for Cash Exchange</t>
+          <t>Batch Totals Inquiry</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Cross Entry</t>
+          <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Temporary Sign Out</t>
+          <t>Set Up Reduced Sign On for NCCS</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Operator Authority Record Maintenance</t>
+          <t>Clearing List Received</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Amend Deposit Content Counters</t>
+          <t>Return Sign In</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Suspense Item Processing</t>
+          <t>Temporary Sign Out</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Batch Totals Inquiry</t>
+          <t>Suspense Item Processing</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Box Inventory Management</t>
+          <t>Sign In</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Open or Close Branch</t>
+          <t>Re-authorize Locked Branch</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Set Up Reduced Sign On for NCCS</t>
+          <t>Cross Entry</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Settlement</t>
+          <t>Box Inventory Management</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Batch Totals Update</t>
+          <t>Clearing List Dispatched</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Final Sign Out</t>
+          <t>Cheques Cashed</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Clearings Summary</t>
+          <t>Final Sign Out</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Interbranch Transfer</t>
+          <t>Clearings Summary</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Cheques Cashed</t>
+          <t>Move Clearing Item</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Move Clearing Item</t>
+          <t>Cash for Cash Exchange</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Clearing List Dispatched</t>
+          <t>Operator Authority Record Maintenance</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Re-authorize Locked Branch</t>
+          <t>Interbranch Transfer</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -661,11 +661,11 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Cross Entry</t>
+          <t>Sign In</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Interbranch Transfer</t>
+          <t>Cross Entry</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -697,7 +697,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sign In</t>
+          <t>Interbranch Transfer</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -777,7 +777,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>FHSA</t>
+          <t>Sell Canada Premium Bonds /</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -787,17 +787,25 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sell Canada Premium Bonds / Provincial Bonds - Suspense Account Credit</t>
+          <t>Amend Deposit Content Counters</t>
         </is>
       </c>
       <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>FHSA</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Amend Deposit Content Counters</t>
+          <t>Clearings Summary</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -807,7 +815,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Clearings Summary</t>
+          <t>Move Clearing Item</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -817,7 +825,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Move Clearing Item</t>
+          <t>Return Sign In</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -827,7 +835,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Return Sign In</t>
+          <t>Clearing List Dispatched</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -837,7 +845,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Clearing List Dispatched</t>
+          <t>Sundry Financial</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -847,20 +855,10 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sundry Financial</t>
+          <t>Batch Totals Update</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Batch Totals Update</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -875,7 +873,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC20"/>
+  <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1802,7 +1800,7 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2211,7 +2209,7 @@
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -2221,11 +2219,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>899158</v>
+        <v>899159</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TC006 Sell Canada Premium Bonds_Provincial Bonds - Suspense Account Credit transaction_Validate transaction details on Electronic Journal</t>
+          <t>TC009 Validation of Amend Deposit Content Counters transaction_Validate Electronic Journal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2234,224 +2232,6 @@
         </is>
       </c>
       <c r="E8" t="inlineStr">
-        <is>
-          <t>TC006 Sell Canada Premium Bonds_Provincial Bonds - Suspense Account Credit transaction_Validate transaction details on 
-Electronic Journal
-Business Capability : Administration
-Sub Category: Balancing/Clearings
-Impacted Application: Customer Connect and MECH
-Role :Branch User (CSR)
-Design:
-GIVEN a personal profile with a valid EDB account
-WHEN Select  Sell Canada Premium Bonds / Provincial Bonds - Suspense Account Credit transaction in Electronic Journal and 
-Click Details button
-THEN System should display transaction details information on Electronic Journal Transaction
-Condition:
-Login to Customer Connect Application as Branch User (CSR)
-Profile : Personal
-Profile Type : Customer
-Sign in with valid financial operator ID
-Profile should have all the AML/KYC data filled
-Profile should have a valid EDB account for Sell Canada Premium Bonds / Provincial Bonds - Suspense Account Credit 
-transaction</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>14</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>sbote</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>MANUAL</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Administration</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>P&amp;BB - Branch operations</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>1-High</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Login to Customer Connect Application as 
-Branch User (CSR)
-Profile : Personal
-Profile Type : Customer
-Sign in with valid financial operator ID
-Profile should have all the AML/KYC data filled
-Profile should have valid EDB account for Sell 
-Canada Premium Bonds / Provincial Bonds - 
-Suspense Account Credit transaction~Customer Connect Application launched 
-successfully | Search and Open Personal Profile~Profile opened successfully | Select Service Navigator from Go To dropdown~Service Navigator screen should be displayed | Select
-Holding or Service = Administration
-Category = Balancing/Administration
-Transaction = Sell Canada Premium Bonds / 
-Provincial Bonds - Suspense Account Credit
-and Click on Process now button~Customer Connect - Sell Canada Premium 
-Bonds / Provincial Bonds - Suspense 
-Account Credit screen should be displayed 
-with 
-'G/L' radio button in Debit General Ledger 
-group box is selected by default and 
-with OK, Cancel, Clear and Explantation push 
-buttons | Validate the tabbing sequence for all the fields 
-in the 'Customer Connect - Sell Canada Premium 
-Bonds / Provincial Bonds - Suspense Account 
-Credit' screen and verify the watermark values 
-for each field (if applicable) while performing 
-tabbing sequence~Tabbing sequence should be working fine and 
-Focus should be moved to next consecutive 
-fields.
-Tabbing is from left to right and only tabs to 
-enabled fields.
-Left/Right arrow keys will move focus for radio 
-buttons.
-System should display the watermark values (If 
-Applicable) when tabbed into respective field 
-and watermark values should be removed once 
-the focus is tabbed out from the particular field. | Enter valid Transit &amp; Suspense Account number 
-in respective fields~Transit &amp; Suspense Account number is entered successfully in their respective fields | Select 'Cheque' radio button under Debit General 
-Ledger section~Cheque radio button is selected successfully | Enter the cheque amount in 'Total Cheque 
-Amount' field~Entered amount should be displayed 
-successfully | Enter other optional data i.e. Residence &amp; 
-Explanation and
-Select ‘OK’ push button in account credit screen~System accepts and display successfull Host 
-Response pop up window with Profile, Close, 
-Recall,Override and Help push buttons | Click on 'Profile' button in the Host response 
-screen~System should close the Host Response pop 
-up  and Customer Connect - Profile View screen 
-is displayed | Click Inquiries button from Menu bar~Inquiries pop up should be displayed with 
-Inquiry Menu screen | Select 
-Holding Type = General Inquiries
-Inquiry = Electronic Journal
-Click OK button~System should display Electronic Journal 
-screen | Click List button in Electronic Journal screen~System accepts and displays the Electronic 
-Journal Transaction list | Select the Sell Canada Premium Bonds / 
-Provincial Bonds - Suspense Account Credit 
-transaction in Electronic Journal Transaction list 
-and Click Details button~System should display the transaction 
-information under Transactions Details grid with 
-Success Host Response details</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>GIVEN a personal profile with a valid EDB account</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>WHEN Select  Sell Canada Premium Bonds / Provincial Bonds - Suspense Account Credit transaction in Electronic Journal and 
-Click Details button</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>THEN System should display transaction details information on Electronic Journal Transaction</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Condition:
-Login to Customer Connect Application as Branch User (CSR)
-Profile : Personal
-Profile Type : Customer
-Sign in with valid financial operator ID
-Profile should have all the AML/KYC data filled
-Profile should have a valid EDB account for Sell Canada Premium Bonds / Provincial Bonds - Suspense Account Credit 
-transaction</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>TC006 Sell Canada Premium Bonds_Provincial Bonds - Suspense Account Credit transaction_Validate transaction details on 
-Electronic Journal
-Business Capability : Administration
-Sub Category: Balancing/Clearings
-Impacted Application: Customer Connect and MECH
-Role :Branch User (CSR)</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Administration</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Customer Connect and MECH</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>Balancing/Clearings</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>Branch User (CSR)</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>Sell Canada Premium Bonds / Provincial Bonds - Suspense Account Credit</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>Personal</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>Customer</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Subject\Rationalized Master Test Bed\No Regret Customer Connect\Rationization Oct23 No Regret\Administration\E2E Administration</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>899159</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>TC009 Validation of Amend Deposit Content Counters transaction_Validate Electronic Journal</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>CCQA_OPT_2023</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
         <is>
           <t>TC009 Validation of Amend Deposit Content Counters transaction_Validate Electronic Journal
 Business Capability : Administration
@@ -2472,35 +2252,35 @@
 Need valid Referance Date to complete the transaction</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="F8" t="n">
         <v>16</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>sbote</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>MANUAL</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Administration</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>P&amp;BB - Branch operations</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>1-High</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>Login to Customer Connect Application as 
 Branch User 
@@ -2564,22 +2344,22 @@
 Response details</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>GIVEN a Commercial profile</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>WHEN Select Amend Deposit Content Counters transaction in Electronic Journal and Click Details button</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>THEN System should display transaction details information on Electronic Journal Transaction</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>Condition:
 Login to Customer Connect Application as Branch User 
@@ -2591,7 +2371,7 @@
 Need valid Referance Date to complete the transaction</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>TC009 Validation of Amend Deposit Content Counters transaction_Validate Electronic Journal
 Business Capability : Administration
@@ -2600,73 +2380,73 @@
 Role :Branch User</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>Administration</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>Customer Connect</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>Balancing/Clearings</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>Branch User</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>Amend Deposit Content Counters</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>Commercial</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>Customer</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="n">
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Subject\Rationalized Master Test Bed\No Regret Customer Connect\Rationization Oct23 No Regret\Administration\E2E Administration</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B9" t="n">
         <v>899161</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>TC008_Branch User(CSR)_Personal Customer performing Clearing Summary transaction</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>CCQA_OPT_2023</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>TC008_Branch User(CSR)_Personal Customer performing Clearing Summary transaction
 Business Capability : Administration
@@ -2685,35 +2465,35 @@
 Profile should have all the AML/KYC fields updated already</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="F9" t="n">
         <v>7</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>pkuma76</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>MANUAL</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>Administration</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>P&amp;BB - Branch operations</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>1-High</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>Login to Customer Connect Application as 
 Branch User (CSR) 
@@ -2759,22 +2539,22 @@
 to Service Navigator screen</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>GIVEN a personal profile</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>WHEN Select Clearings Summary transaction from Service Navigator</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>THEN validate Clearings Summary details displayed successfully</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>Condition:
 Login to Customer Connect Application as Branch User (CSR) 
@@ -2784,7 +2564,7 @@
 Profile should have all the AML/KYC fields updated already</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>TC008_Branch User(CSR)_Personal Customer performing Clearing Summary transaction
 Business Capability : Administration
@@ -2793,73 +2573,73 @@
 Role :Branch User (CSR)</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>Administration</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>Customer Connect</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>Balancing/Clearings</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>Branch User (CSR)</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>Clearings Summary</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>Personal</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>Customer</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="n">
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Subject\Rationalized Master Test Bed\No Regret Customer Connect\Rationization Oct23 No Regret\Administration\E2E Administration</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B10" t="n">
         <v>899163</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>TC010 _Branch User (FSM)_Personal customer performing Move Clearing Item transactionand Validate details in Electronic Journal</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>CCQA_OPT_2023</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>TC010 _Branch User (FSM)_Personal customer performing Move Clearing Item transactionand Validate details in Electronic 
 Journal
@@ -2880,35 +2660,35 @@
 Need valid Sequence Number &amp; Number of Items to complete the transaction</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="F10" t="n">
         <v>16</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>sbote</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>MANUAL</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Administration</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>P&amp;BB - Branch operations</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>1-High</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>Login to Customer Connect Application as 
 Branch User (FSM)
@@ -2960,22 +2740,22 @@
 Response details</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>GIVEN a personal profile</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>WHEN perform Clearing Item transaction via Service Navigator</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>THEN Validate transaction details information in Electronic Journal</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>Condition:
 Login to Customer Connect Application as Branch User (FSM)
@@ -2986,7 +2766,7 @@
 Need valid Sequence Number &amp; Number of Items to complete the transaction</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>TC010 _Branch User (FSM)_Personal customer performing Move Clearing Item transactionand Validate details in Electronic 
 Journal
@@ -2996,73 +2776,73 @@
 Role :Branch User (FSM)</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>Administration</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>Customer Connect</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>Balancing/Clearings</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>Branch User (FSM)</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>Move Clearing Item</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>Personal</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>Customer</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="n">
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Subject\Rationalized Master Test Bed\No Regret Customer Connect\Rationization Oct23 No Regret\Administration\E2E Administration</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B11" t="n">
         <v>899164</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>TC011 Validation of Return Sign In transaction_Validate Electronic Journal</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>CCQA_OPT_2023</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>TC011 Validation of Return Sign In transaction_Validate Electronic Journal
 Business Capability : Administration
@@ -3081,35 +2861,35 @@
 Profile should have all the AML/KYC data filled.</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="F11" t="n">
         <v>12</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>gashokr</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>MANUAL</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>Administration</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>P&amp;BB - Branch operations</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>1-High</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>Login to Customer Connect Application as 
 Branch User (CSR) 
@@ -3161,22 +2941,22 @@
 under Host response section</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>GIVEN a personal profile</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>WHEN Select Return Sign In transaction in Electronic Journal and Click Details button</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>THEN System should display transaction details information on Electronic Journal Transaction</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>Condition:
 Login to Customer Connect Application as Branch User (CSR) 
@@ -3186,7 +2966,7 @@
 Profile should have all the AML/KYC data filled.</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>TC011 Validation of Return Sign In transaction_Validate Electronic Journal
 Business Capability : Administration
@@ -3195,73 +2975,73 @@
 Role :Branch User (CSR)</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>Administration</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>Customer Connect</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>Branch/Operator Administration</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>Branch User (CSR)</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>Return Sign In</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>Personal</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>Customer</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="n">
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Subject\Rationalized Master Test Bed\No Regret Customer Connect\Rationization Oct23 No Regret\Administration\E2E Administration</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B12" t="n">
         <v>899165</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>TC007 Validation of Final Sign Out transaction in  Electronic Journal</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>CCQA_OPT_2023</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>TC005 Validation of Final Sign Out transaction and validate Electronic Journal
 Business Capability : Administration
@@ -3280,35 +3060,35 @@
 Profile should have all the AML/KYC fields updated already</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="F12" t="n">
         <v>9</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>pkuma76</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>MANUAL</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>Administration</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>P&amp;BB - Branch operations</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>1-High</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>Login to Customer Connect Application as 
 Branch User (CSR)
@@ -3339,22 +3119,22 @@
 under Host response section</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>GIVEN a personal profile</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>WHEN Select Final Sign Out transaction in Electronic Journal and Click Details button</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>THEN System should display transaction details information on Electronic Journal Transaction</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>Condition:
 Login to Customer Connect Application as CSR User 
@@ -3364,7 +3144,7 @@
 Profile should have all the AML/KYC fields updated already</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>TC005 Validation of Final Sign Out transaction and validate Electronic Journal
 Business Capability : Administration
@@ -3373,73 +3153,73 @@
 Role :Branch User (CSR)</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>Administration</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>Customer Connect</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>Branch/Operator Administration</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>Branch User (CSR)</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>Final Sign Out</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>Personal</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>Customer</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="n">
-        <v>3</v>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="n">
+        <v>4</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Subject\Rationalized Master Test Bed\No Regret Customer Connect\Rationization Oct23 No Regret\Administration\E2E Administration</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B13" t="n">
         <v>899174</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>TC012 Personal customer performing Clearing List Dispatched transaction and Validate details in Electronic Journal</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>CCQA_OPT_2023</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>TC012 Personal customer performing Clearing List Dispatched transaction and Validate details in Electronic Journal
 Business Capability : Administration
@@ -3459,35 +3239,35 @@
 Need valid Receiving Transit &amp; Clearing List Date to complete the transaction</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="F13" t="n">
         <v>14</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>gashokr</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>MANUAL</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>Administration</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>P&amp;BB - Branch operations</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>1-High</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>Login to Customer Connect Application as 
 Branch User (CSR)
@@ -3538,22 +3318,22 @@
 displayed under Transaction details section</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>GIVEN a personal profile</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>WHEN Perform Clearing List Dispatched(SPCL 72) transaction</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>THEN Validate transaction details in Electronic Journal</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>Condition:
 Login to Customer Connect Application as Branch User (CSR)
@@ -3564,7 +3344,7 @@
 Need valid Receiving Transit &amp; Clearing List Date to complete the transaction</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>TC012 Personal customer performing Clearing List Dispatched transaction and Validate details in Electronic Journal
 Business Capability : Administration
@@ -3573,73 +3353,73 @@
 Role :Branch User (CSR)</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>Administration</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>Customer Connect</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>Balancing/Clearings</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>Branch User (CSR)</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>Clearing List Dispatched</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>Personal</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>Customer</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="n">
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Subject\Rationalized Master Test Bed\No Regret Customer Connect\Rationization Oct23 No Regret\Administration\E2E Administration</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B14" t="n">
         <v>899177</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>TC014 Validation of  Suspense Items Processing-Clearing Transaction</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>CCQA_OPT_2023</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>TC014 Validation of  Suspense Items Processing-Clearing Transaction
 Business Capability : Administration
@@ -3659,35 +3439,35 @@
 Profile should have valid Primary Chequing Account</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="F14" t="n">
         <v>18</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>nkuma48</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>MANUAL</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>Administration</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>P&amp;BB - Branch operations</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>1-High</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>Login to Customer Connect Application as 
 Branch User (CSR)
@@ -3745,22 +3525,22 @@
 displayed under Transaction details section</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>GIVEN a personal profile having a Primary Chequing Account</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>WHEN Select  Suspense Items Processing- Clearing transaction in Electronic Journal and Click Details button</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>THEN System should display transaction details information on Electronic Journal Transaction</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>Condition:
 Login to Customer Connect Application as Branch User (CSR)
@@ -3771,7 +3551,7 @@
 Profile should have valid Primary Chequing Account</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>TC014 Validation of  Suspense Items Processing-Clearing Transaction
 Business Capability : Administration
@@ -3780,73 +3560,73 @@
 Role :Branch User (CSR)</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>Administration</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>Customer Connect</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>Balancing/Clearings</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>Branch User (CSR)</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>Suspense Item Processing</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>Personal</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>Customer</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="Y14" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="n">
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Subject\Rationalized Master Test Bed\No Regret Customer Connect\Rationization Oct23 No Regret\Administration\E2E Administration</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B15" t="n">
         <v>899178</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>TC013 Validation of Suspense Items Processing- Originating transaction_Validate Electronic Journal</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>CCQA_OPT_2023</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>TC013 Validation of Suspense Items Processing- Originating transaction_Validate Electronic Journal
 Business Capability : Administration
@@ -3866,35 +3646,35 @@
 Profile should be having a Primary Chequing Account</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="F15" t="n">
         <v>21</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>gashokr</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>MANUAL</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>Administration</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>P&amp;BB - Branch operations</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>1-High</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>Login to Customer Connect Application as 
 Branch User (CSR)
@@ -3962,22 +3742,22 @@
 displayed under Transaction details section</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>GIVEN a personal profile having a Primary Chequing Account</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>WHEN Select  Suspense Items Processing- Originating transaction in Electronic Journal and Click Details button</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>THEN System should display transaction details information on Electronic Journal Transaction</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>Condition:
 Login to Customer Connect Application as Branch User (CSR)
@@ -3988,7 +3768,7 @@
 Profile should be having a Primary Chequing Account</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>TC013 Validation of Suspense Items Processing- Originating transaction_Validate Electronic Journal
 Business Capability : Administration
@@ -3997,73 +3777,73 @@
 Role :Branch User (CSR)</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>Administration</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>Customer Connect</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>Balancing/Clearings</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>Branch User (CSR)</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>Suspense Item Processing</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>Personal</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>Customer</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="Y15" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="n">
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Subject\Rationalized Master Test Bed\No Regret Customer Connect\Rationization Oct23 No Regret\Administration\E2E Administration</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B16" t="n">
         <v>899186</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>TC015 Validation of Cross Entry Transcation_Validate Electronic Journal</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>CCQA_OPT_2023</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>TC015 Validation of Cross Entry Transcation_Validate Electronic Journal
 Business Capability : Administration
@@ -4083,35 +3863,35 @@
 Profile should have all the AML/KYC fields updated already</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="F16" t="n">
         <v>13</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>pkuma76</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>MANUAL</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>Administration</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>P&amp;BB - Branch operations</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>1-High</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>Login to Customer Connect Application as 
 Branch User(FSM) 
@@ -4160,22 +3940,22 @@
 Details button~Success Host Response should be displayed</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>GIVEN a personal profile</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>WHEN Select Cross Entry transcation</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>THEN Request action Purchase from Treasury details displayed successfully</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>Condition:
 Login to Customer Connect Application as Branch User(FSM) 
@@ -4186,7 +3966,7 @@
 Profile should have all the AML/KYC fields updated already</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>TC015 Validation of Cross Entry Transcation_Validate Electronic Journal
 Business Capability : Administration
@@ -4195,73 +3975,73 @@
 Role :Branch User (FSM)</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>Administration</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>Customer Connect</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>Balancing/Clearings</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>Branch User (FSM)</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>Cross Entry</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>Personal</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>Customer</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="Y16" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="n">
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Subject\Rationalized Master Test Bed\No Regret Customer Connect\Rationization Oct23 No Regret\Administration\E2E Administration</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B17" t="n">
         <v>899200</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>TC016 Validation of Sundry Financials Transaction Processing &amp; Verification in Electronic Journal</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>CCQA_OPT_2023</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>TC016 Validation of Sundry Financials Transaction Processing &amp; Verification in Electronic Journal 
 Business Capability : Administration
@@ -4281,35 +4061,35 @@
 Profile should be having a Primary Chequing Account and  valid Credit Card</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="F17" t="n">
         <v>11</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>pkaleka</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>MANUAL</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>Administration</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>P&amp;BB - Branch operations</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>1-High</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>Login to Customer Connect Application as 
 Branch User
@@ -4362,22 +4142,22 @@
 displayed under Host response section</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>GIVEN a personal profile having a Primary Chequing Account</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>WHEN user performs sundry financial transaction</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>THEN correct host response recieved successfully</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>Condition:
 Login to Customer Connect Application as Branch User 
@@ -4388,7 +4168,7 @@
 Profile should be having a Primary Chequing Account and  valid Credit Card</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>TC016 Validation of Sundry Financials Transaction Processing &amp; Verification in Electronic Journal 
 Business Capability : Administration
@@ -4397,73 +4177,73 @@
 Role :Branch User</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>Administration</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>Customer Connect</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>Balancing/Clearings</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>Branch User</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>Sundry Financial</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="W17" t="inlineStr">
         <is>
           <t>Personal</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="X17" t="inlineStr">
         <is>
           <t>Customer</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
+      <c r="Y17" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="n">
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Subject\Rationalized Master Test Bed\No Regret Customer Connect\Rationization Oct23 No Regret\Administration\E2E Administration</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B18" t="n">
         <v>899223</v>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>TC017 Validation of Inter Branch Transfer Transaction by Employee Gateway</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>CCQA_OPT_2023</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>TC017 Validation of Inter Branch Transfer Transaction by Employee Gateway
 Business Capability : Administration
@@ -4482,35 +4262,35 @@
 Need Receiving transit number details</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="F18" t="n">
         <v>12</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>pkaleka</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>MANUAL</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>Administration</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>P&amp;BB - Branch operations</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>1-High</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>Login to Customer Connect Application as 
 Branch User(CSR)
@@ -4560,22 +4340,22 @@
 details</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>GIVEN a Employee gateway</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>WHEN  Select Inter Branch Transfer in Electronic Journal and Click Details button</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>THEN System should display transaction details information on Electronic Journal Transaction</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>Condition:
 Login to Customer Connect Application as Branch User(CSR)
@@ -4585,7 +4365,7 @@
 Need Receiving transit number details</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>TC017 Validation of Inter Branch Transfer Transaction by Employee Gateway
 Business Capability : Administration
@@ -4594,65 +4374,65 @@
 Role :Branch User (CSR)</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>Administration</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>Customer Connect</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>Balancing/Clearings</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>Branch User (CSR)</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>Interbranch Transfer</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr">
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr">
         <is>
           <t>Employee</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="n">
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Subject\Rationalized Master Test Bed\No Regret Customer Connect\Rationization Oct23 No Regret\Administration\Employee Sales and Service Daily Activities (My Day)</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B19" t="n">
         <v>917939</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>TC010 Validate Batch Processing screen with Cancel pb, Successfull host response popup for Batch Totals Update transaction when Click on Batch pb in My Day &amp; Process Batch Totals Update transaction from service navigator_Batch user personal profile</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>CCQA_OPT_2023</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>TC010 Validate Batch Processing screen with Cancel pb, Successfull host response popup for Batch Totals Update 
 transaction when Click on Batch pb in My Day &amp; Process Batch Totals Update transaction from service navigator_Batch user 
@@ -4674,35 +4454,35 @@
 Profile should have all the AML/KYC information filled</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="F19" t="n">
         <v>8</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>sbote</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>MANUAL</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>Product Servicing</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>P&amp;BB - Branch operations</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>1-High</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>Login to Customer Connect Application as 
 Batch User
@@ -4726,23 +4506,23 @@
 should be displayed with previous selections</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>GIVEN a Personal profile with batch user</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>WHEN Click on Batch pb in My Day screen &amp; Process Batch Totals Update transaction from service navigator screen</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>THEN Validate Batch Processing screen with Cancel pb, Successfull host response popup for Batch Totals Update 
 transaction</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>CONDITION:
 Login to Customer Connect Application as Batch User
@@ -4752,7 +4532,7 @@
 Profile should have all the AML/KYC information filled</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>TC010 Validate Batch Processing screen with Cancel pb, Successfull host response popup for Batch Totals Update 
 transaction when Click on Batch pb in My Day &amp; Process Batch Totals Update transaction from service navigator_Batch user 
@@ -4763,9 +4543,171 @@
 Role : Batch user</t>
         </is>
       </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Product Servicing</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Customer Connect</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Batch Processing</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Batch user</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Batch Totals Update</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Customer</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Subject\Rationalized Master Test Bed\No Regret Customer Connect\Rationization Oct23 No Regret\Operator Administration</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>89914001</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>TC002A Validation of Operator Final Sign-Out Transaction</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CCQA_OPT_2023</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Validation of the Operator Final Sign-Out Transaction in the Customer Connect application.
+Business Capability: Administration
+Sub Category: Branch/Operator Admin
+Impacted Application: Customer Connect
+Role: Branch User (CSR)
+Design:
+GIVEN a personal profile
+WHEN the Final Sign-Out transaction is initiated and confirmed
+THEN the system should process the sign-out and update the electronic journal
+Condition:
+Login to Customer Connect Application as Branch User (CSR)
+Profile: Personal
+Profile Type: Customer
+Sign in with a valid financial operator ID
+Profile should have all AML/KYC fields updated</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>11</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>sbote</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Administration</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>P&amp;BB - Branch Operations</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>1-High</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Login to Customer Connect as a Branch User (CSR)
+Navigate to Service Navigator via "Go To" dropdown
+Select:
+Holding or Service: Administration
+Category: Operator Administration
+Transaction: Final Sign Out
+Click Process Now~Host Response pop-up should display available amount status | Click OK in the Host Response pop-up~Operator should be signed out successfully | Click OK in the second Host Response pop-up~System should return to Service Navigator screen | Click Inquiries from the Menu Bar~Inquiries pop-up should appear | Select:
+Holding Type: General Inquiries
+Inquiry: Electronic Journal
+Click OK~System should display the Electronic Journal screen| Click List in the Electronic Journal screen~System should list all captured transactions | Select the Final Sign-Out transaction and click Details~System should display Final Sign-Out transaction details in the Transactions Details Grid
+Success Host Response should be displayed under Host Response Section | Click Close Inquiries~System should close Inquiries screen and return to Service Navigator</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>GIVEN a personal profile</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>WHEN the Final Sign-Out transaction is initiated and confirmed</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>THEN the system should process the sign-out and update the electronic journal</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Condition:
+Login to Customer Connect Application as Branch User (CSR)
+Profile: Personal
+Profile Type: Customer
+Sign in with a valid financial operator ID
+Profile should have all AML/KYC fields updated</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Validation of the Operator Final Sign-Out Transaction in the Customer Connect application.
+Business Capability: Administration
+Sub Category: Branch/Operator Admin
+Impacted Application: Customer Connect
+Role: Branch User (CSR)</t>
+        </is>
+      </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Product Servicing</t>
+          <t>Administration</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -4775,17 +4717,17 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>Batch Processing</t>
+          <t>Branch/Operator Admin</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>Batch user</t>
+          <t>Branch User (CSR)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Batch Totals Update</t>
+          <t>Final Sign Out</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -4807,7 +4749,331 @@
       <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Subject\Rationalized Master Test Bed\Rationization Oct23 No Regret\Operator Administration</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>89914002</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>TC002B Validation of Operator Sign-In Transaction</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CCQA_OPT_2023</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Validation of the Operator Sign-In Transaction in the Customer Connect application.
+Business Capability: Administration
+Sub Category: Branch/Operator Admin
+Impacted Application: Customer Connect
+Role: Branch User (CSR)
+Design:
+GIVEN a personal profile
+WHEN the Sign-In transaction is initiated
+THEN the system should successfully log in the operator and update the electronic journal
+Condition:
+Login to Customer Connect Application as Branch User (CSR)
+Profile: Personal
+Profile Type: Customer
+Profile should have all AML/KYC fields updated</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>10</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>sbote</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Administration</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>P&amp;BB - Branch Operations</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1-High</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Login to Customer Connect as a Branch User (CSR)
+Navigate to Service Navigator via "Go To" dropdown
+Select:
+Holding or Service: Administration
+Category: Operator Administration
+Transaction: Sign In
+Click Process Now~Operator Administration pop-up should display previously connected financial operator number | Validate the tabbing sequence for all fields and verify watermark values~Tabbing works left to right and skips disabled fields
+Left/Right arrow keys move focus between radio buttons
+Watermark values appear when tabbed into a field and disappear when tabbed out | Enter Valid Operator Number and select Postdate checkbox~Operator number should be entered successfully | Click OK~Warning pop-up:
+"Are you sure you want to log on with this operator?"
+With Yes &amp; No buttons | Click Yes~Success message in Information pop-up | Click OK~System returns to Service Navigator screen | Verify transaction in Electronic Journal:
+Click Inquiries
+Select General Inquiries &gt; Electronic Journal
+Click OK ? System displays Electronic Journal
+Click List ? Transaction should appear
+Select Sign-In transaction and click Details~Transaction details should be displayed</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>GIVEN a personal profile</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>WHEN the Sign-In transaction is initiated</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>THEN the system should successfully log in the operator and update the electronic journal</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Condition:
+Login to Customer Connect Application as Branch User (CSR)
+Profile: Personal
+Profile Type: Customer
+Profile should have all AML/KYC fields updated</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Validation of the Operator Sign-In Transaction in the Customer Connect application.
+Business Capability: Administration
+Sub Category: Branch/Operator Admin
+Impacted Application: Customer Connect
+Role: Branch User (CSR)</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Administration</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Customer Connect</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Branch/Operator Admin</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Branch User (CSR)</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Sign In</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Customer</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Subject\Rationalized Master Test Bed\Rationization Oct23 No Regret\Operator Administration</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>89914003</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>TC002C Validation of Operator Sign-In with Invalid Operator</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>CCQA_OPT_2023</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Validation of Operator Sign-In Transaction when using an invalid operator ID in Customer Connect.
+Business Capability: Administration
+Sub Category: Branch/Operator Admin
+Impacted Application: Customer Connect
+Role: Branch User (CSR)
+Design:
+GIVEN an invalid operator number
+WHEN the Sign-In transaction is attempted
+THEN the system should prevent login and display an appropriate error message
+Condition:
+Login to Customer Connect Application as Branch User (CSR)
+Profile: Personal
+Profile Type: Customer</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>8</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>sbote</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Administration</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>P&amp;BB - Branch Operations</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>1-High</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Login to Customer Connect as a Branch User (CSR)
+Navigate to Service Navigator
+Select:
+Holding or Service: Administration
+Category: Operator Administration
+Transaction: Sign In
+Click Process Now~Operator Administration pop-up should display | Enter an Invalid Operator Number~System should validate input and display an error message | Click OK~System should prevent login and show an error pop-up | Verify Error Log in Electronic Journal
+Click Inquiries
+Select General Inquiries &gt; Electronic Journal
+Click OK ? System displays Electronic Journal
+Click List ? The failed transaction should appear
+Select the transaction and click Details~Error response should be displayed | Click Close Inquiries~System should return to Service Navigator</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>GIVEN an invalid operator number</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>WHEN the Sign-In transaction is attempted</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>THEN the system should prevent login and display an appropriate error message</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Condition:
+Login to Customer Connect Application as Branch User (CSR)
+Profile: Personal
+Profile Type: Customer</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Validation of Operator Sign-In Transaction when using an invalid operator ID in Customer Connect.
+Business Capability: Administration
+Sub Category: Branch/Operator Admin
+Impacted Application: Customer Connect
+Role: Branch User (CSR)</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Administration</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Customer Connect</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Branch/Operator Admin</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Branch User (CSR)</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Sign In</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Customer</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4821,7 +5087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC13"/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5928,23 +6194,241 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Subject\Rationalized Master Test Bed\No Regret Customer Connect\Rationization Oct23 No Regret\Administration\E2E Administration</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>899158</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>TC006 Sell Canada Premium Bonds_Provincial Bonds - Suspense Account Credit transaction_Validate transaction details on Electronic Journal</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CCQA_OPT_2023</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>TC006 Sell Canada Premium Bonds_Provincial Bonds - Suspense Account Credit transaction_Validate transaction details on 
+Electronic Journal
+Business Capability : Administration
+Sub Category: Balancing/Clearings
+Impacted Application: Customer Connect and MECH
+Role :Branch User (CSR)
+Design:
+GIVEN a personal profile with a valid EDB account
+WHEN Select  Sell Canada Premium Bonds / Provincial Bonds - Suspense Account Credit transaction in Electronic Journal and 
+Click Details button
+THEN System should display transaction details information on Electronic Journal Transaction
+Condition:
+Login to Customer Connect Application as Branch User (CSR)
+Profile : Personal
+Profile Type : Customer
+Sign in with valid financial operator ID
+Profile should have all the AML/KYC data filled
+Profile should have a valid EDB account for Sell Canada Premium Bonds / Provincial Bonds - Suspense Account Credit 
+transaction</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>14</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>sbote</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Administration</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>P&amp;BB - Branch operations</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1-High</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Login to Customer Connect Application as 
+Branch User (CSR)
+Profile : Personal
+Profile Type : Customer
+Sign in with valid financial operator ID
+Profile should have all the AML/KYC data filled
+Profile should have valid EDB account for Sell 
+Canada Premium Bonds / Provincial Bonds - 
+Suspense Account Credit transaction~Customer Connect Application launched 
+successfully | Search and Open Personal Profile~Profile opened successfully | Select Service Navigator from Go To dropdown~Service Navigator screen should be displayed | Select
+Holding or Service = Administration
+Category = Balancing/Administration
+Transaction = Sell Canada Premium Bonds / 
+Provincial Bonds - Suspense Account Credit
+and Click on Process now button~Customer Connect - Sell Canada Premium 
+Bonds / Provincial Bonds - Suspense 
+Account Credit screen should be displayed 
+with 
+'G/L' radio button in Debit General Ledger 
+group box is selected by default and 
+with OK, Cancel, Clear and Explantation push 
+buttons | Validate the tabbing sequence for all the fields 
+in the 'Customer Connect - Sell Canada Premium 
+Bonds / Provincial Bonds - Suspense Account 
+Credit' screen and verify the watermark values 
+for each field (if applicable) while performing 
+tabbing sequence~Tabbing sequence should be working fine and 
+Focus should be moved to next consecutive 
+fields.
+Tabbing is from left to right and only tabs to 
+enabled fields.
+Left/Right arrow keys will move focus for radio 
+buttons.
+System should display the watermark values (If 
+Applicable) when tabbed into respective field 
+and watermark values should be removed once 
+the focus is tabbed out from the particular field. | Enter valid Transit &amp; Suspense Account number 
+in respective fields~Transit &amp; Suspense Account number is entered successfully in their respective fields | Select 'Cheque' radio button under Debit General 
+Ledger section~Cheque radio button is selected successfully | Enter the cheque amount in 'Total Cheque 
+Amount' field~Entered amount should be displayed 
+successfully | Enter other optional data i.e. Residence &amp; 
+Explanation and
+Select ‘OK’ push button in account credit screen~System accepts and display successfull Host 
+Response pop up window with Profile, Close, 
+Recall,Override and Help push buttons | Click on 'Profile' button in the Host response 
+screen~System should close the Host Response pop 
+up  and Customer Connect - Profile View screen 
+is displayed | Click Inquiries button from Menu bar~Inquiries pop up should be displayed with 
+Inquiry Menu screen | Select 
+Holding Type = General Inquiries
+Inquiry = Electronic Journal
+Click OK button~System should display Electronic Journal 
+screen | Click List button in Electronic Journal screen~System accepts and displays the Electronic 
+Journal Transaction list | Select the Sell Canada Premium Bonds / 
+Provincial Bonds - Suspense Account Credit 
+transaction in Electronic Journal Transaction list 
+and Click Details button~System should display the transaction 
+information under Transactions Details grid with 
+Success Host Response details</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>GIVEN a personal profile with a valid EDB account</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>WHEN Select  Sell Canada Premium Bonds / Provincial Bonds - Suspense Account Credit transaction in Electronic Journal and 
+Click Details button</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>THEN System should display transaction details information on Electronic Journal Transaction</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Condition:
+Login to Customer Connect Application as Branch User (CSR)
+Profile : Personal
+Profile Type : Customer
+Sign in with valid financial operator ID
+Profile should have all the AML/KYC data filled
+Profile should have a valid EDB account for Sell Canada Premium Bonds / Provincial Bonds - Suspense Account Credit 
+transaction</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>TC006 Sell Canada Premium Bonds_Provincial Bonds - Suspense Account Credit transaction_Validate transaction details on 
+Electronic Journal
+Business Capability : Administration
+Sub Category: Balancing/Clearings
+Impacted Application: Customer Connect and MECH
+Role :Branch User (CSR)</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Administration</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Customer Connect and MECH</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Balancing/Clearings</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Branch User (CSR)</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Sell Canada Premium Bonds /</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Customer</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Subject\Rationalized Master Test Bed\No Regret Customer Connect\Rationization Oct23 No Regret\Administration\E2E Administration\eForms</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B8" t="n">
         <v>919348</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>TC004 - Validation of My Day Request for FHSA Branch Scan Flow_Accept the document requires signatures With Tablet - No</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>OPT_DG_2023</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>TC004 - Validation of My Day Request for FHSA Branch Scan Flow_Accept the document requires signatures With Tablet - No
 Business Capabilities : Administration
@@ -5969,35 +6453,35 @@
 User Language: English</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="F8" t="n">
         <v>13</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>jdasa01</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>MANUAL</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Administration</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>P&amp;BB - Branch operations</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>1-High</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>Click on " Predate " Checkbox and
 Click on " Ok " Push button in Account Debit - Multi Branch Banking (DR 50,51,52,53) Screen.~successful Host Response Screen is 
@@ -6032,22 +6516,22 @@
 the OLB.</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>GIVEN The FHSA transaction process successfully</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>WHEN  Batch scan package is created in Track screen in Documents tab</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>THEN MyDay Q4 is displayed to the user</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>CONDITIONS: 
 Login to Customer Connect Application as Branch user
@@ -6062,7 +6546,7 @@
 User Language: English</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>TC004 - Validation of My Day Request for FHSA Branch Scan Flow_Accept the document requires signatures With Tablet - No
 Business Capabilities : Administration
@@ -6072,81 +6556,81 @@
 Role : Branch User</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>Administration</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>Customer Connect</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>Employee Sales and Service Daily Activities (My Day)</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>Branch User</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>FHSA</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>Personal</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>Customer</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr">
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr">
         <is>
           <t>P&amp;BB-Branch Operations</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC8" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Subject\Rationalized Master Test Bed\No Regret Customer Connect\Rationization Oct23 No Regret\Administration\Employee Sales and Service\ISS003B Ser Nav_Employee Gateway - CONVERTED</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>917883</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>TC003 - Branch_Employee Gateway_Validation of Bank To Bank Wire Transfer Screen 3 with Send wire,Amend Wire Details and Print Forms Push button_Offset_no_Booked Deal_No</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>CCQA_OPT_2023</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>TC003 - Branch_Employee Gateway_Validation of Bank To Bank Wire Transfer Screen 3 with Send wire,Amend Wire Details 
 and Print Forms Push button_Offset_no_Booked Deal_No
@@ -6172,35 +6656,35 @@
 Postal Code : (Ex : N2M1Y2)</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="F9" t="n">
         <v>14</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>sukum19</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>MANUAL</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>Product Servicing</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>P&amp;BB - Everyday Banking</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>1-High</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>Login to Customer Connect Application as 
 Branch user
@@ -6260,23 +6744,23 @@
 Wire Transfer screen 3</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>GIVEN an Employee Gateway</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>WHEN  Select " Bank to Bank Wire Transfer " Transaction  in service navigator</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>THEN Validation of Bank To Bank Wire Transfer Screen 3 with Send wire,Amend Wire Details and Print Forms Push 
 button_Offset_no_Booked Deal_No</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>Condition:
 Login to Customer Connect Application as Branch user
@@ -6291,7 +6775,7 @@
 Postal Code : (Ex : N2M1Y2)</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>TC003 - Branch_Employee Gateway_Validation of Bank To Bank Wire Transfer Screen 3 with Send wire,Amend Wire Details 
 and Print Forms Push button_Offset_no_Booked Deal_No
@@ -6301,65 +6785,65 @@
 Role : Branch User</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>Product Servicing</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>Customer Connect</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>Drafts/Wires/Money Orders</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>Branch User</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>Bank to Bank Wire Transfer</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr">
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>Employee</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="n">
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Subject\Rationalized Master Test Bed\No Regret Customer Connect\Rationization Oct23 No Regret\Administration\Employee Sales and Service\ISS003B Ser Nav_Employee Gateway - CONVERTED</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B10" t="n">
         <v>917903</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>TC004 - Branch_Employee Gateway_Validation of Bank To Bank Wire Transfer Screen with Difference-Fee Push button  with Clear Push buttons_Warning dialog box Displayed_Offset_Yes_Booked Deal_No</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>CCQA_OPT_2023</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>TC004 - Branch_Employee Gateway_Validation of Bank To Bank Wire Transfer Screen with Difference-Fee Push button  with 
 Clear Push buttons_Warning dialog box Displayed_Offset_Yes_Booked Deal_No
@@ -6379,35 +6863,35 @@
 Need a Valid Commercial FirstBank Business Investment Account (Ex : 1012 - 8014 - 232).</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="F10" t="n">
         <v>10</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>sukum19</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>MANUAL</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Product Servicing</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>P&amp;BB - Everyday Banking</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>1-High</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>Login to Customer Connect Application as 
 Branch user
@@ -6444,23 +6928,23 @@
 System gets back to Bank to Bank Wire Transfer Screen.</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>GIVEN an Employee Gateway</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>WHEN  Select " Bank to Bank Wire Transfer " Transaction  in service navigator</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>THEN Validation of Bank To Bank Wire Transfer Screen with Difference-Fee Push button  with Clear Push buttons_Warning 
 dialog box Displayed_Offset_Yes_Booked Deal_No</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>Condition:
 Login to Customer Connect Application as Branch user
@@ -6469,7 +6953,7 @@
 Need a Valid Commercial FirstBank Business Investment Account (Ex : 1012 - 8014 - 232).</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>TC004 - Branch_Employee Gateway_Validation of Bank To Bank Wire Transfer Screen with Difference-Fee Push button  with 
 Clear Push buttons_Warning dialog box Displayed_Offset_Yes_Booked Deal_No
@@ -6479,65 +6963,65 @@
 Role : Branch User</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>Product Servicing</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>Customer Connect</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>Drafts/Wires/Money Orders</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>Branch User</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>Bank to Bank Wire Transfer</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr">
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>Employee</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="n">
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Subject\Rationalized Master Test Bed\No Regret Customer Connect\Rationization Oct23 No Regret\Administration\Employee Sales and Service\ISS003B Ser Nav_Employee Gateway - CONVERTED\Display Customer Connect only</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B11" t="n">
         <v>916984</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>TC002 - Employee Gateway_Validation of Explanation Push button and Predate Checkbox_By Branch Radio button_ in Account Debit - Multi Branch Banking (DR 50,51,52,53) Screen_Successful Host Response Screen</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>CCQA_OPT_2023</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>TC002 - Employee Gateway_Validation of Explanation Push button and Predate Checkbox_By Branch Radio button_ in 
 Account Debit - Multi Branch Banking (DR 50,51,52,53) Screen_Successful Host Response Screen
@@ -6557,35 +7041,35 @@
 Need a Valid Primary Chequing Account Number (Ex : 0124 - 3000-018).</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="F11" t="n">
         <v>9</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>sukum19</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>MANUAL</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>Administration</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>P&amp;BB - Branch operations</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>1-High</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>Login to Customer Connect Application as 
 Branch user (CSR)
@@ -6643,23 +7127,23 @@
 1. Override Push button</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>GIVEN an Employee Gateway</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>WHEN  Select "Account Debit - MBB General Ledger "  Transaction in service navigator</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>THEN Validation of Explanation Push button and Predate Checkbox_By Branch Radio button_ in Account Debit - Multi Branch 
 Banking (DR 50,51,52,53) Screen_Successful Host Response Screen</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>Condition:
 Login to Customer Connect Application as Branch user (CSR)
@@ -6668,7 +7152,7 @@
 Need a Valid Primary Chequing Account Number (Ex : 0124 - 3000-018).</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>TC002 - Employee Gateway_Validation of Explanation Push button and Predate Checkbox_By Branch Radio button_ in 
 Account Debit - Multi Branch Banking (DR 50,51,52,53) Screen_Successful Host Response Screen
@@ -6678,65 +7162,65 @@
 Role : Branch User</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>Administration</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>Customer Connect</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>General Ledger Accounting</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>Branch User</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>Account Debit - MBB General</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr">
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr">
         <is>
           <t>Employee</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="n">
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Subject\Rationalized Master Test Bed\No Regret Customer Connect\Rationization Oct23 No Regret\Administration\Employee Sales and Service\ISS003B Ser Nav_Employee Gateway - CONVERTED\Display Customer Connect only</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>917087</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>TC001 - Employee Gateway_Validation of Explanation Push button and Predate Checkbox_By Customer Radio button_ in Account Debit - Multi Branch Banking (DR 50,51,52,53) Screen_Successful Host Response Screen</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>CCQA_OPT_2023</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>TC001 - Employee Gateway_Validation of Explanation Push button and Predate Checkbox_By Customer Radio button_ in 
 Account Debit - Multi Branch Banking (DR 50,51,52,53) Screen_Successful Host Response Screen
@@ -6756,35 +7240,35 @@
 Need a Valid Primary Chequing Account Number (Ex : 0124 - 3000-018).</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>9</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>sukum19</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>MANUAL</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>Administration</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>P&amp;BB - Branch operations</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>1-High</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>Login to Customer Connect Application as 
 Branch user (CSR)
@@ -6832,23 +7316,23 @@
 displayed.</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>GIVEN an Employee Gateway</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>WHEN  Select "Account Debit - MBB General Ledger "  Transaction in service navigator</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>THEN Validation of Explanation Push button and Predate Checkbox_By Cusomer Radio button_ in Account Debit - Multi Branch 
 Banking (DR 50,51,52,53) Screen_Successful Host Response Screen</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>Condition:
 Login to Customer Connect Application as Branch user (CSR)
@@ -6857,7 +7341,7 @@
 Need a Valid Primary Chequing Account Number (Ex : 0124 - 3000-018).</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>TC001 - Employee Gateway_Validation of Explanation Push button and Predate Checkbox_By Customer Radio button_ in 
 Account Debit - Multi Branch Banking (DR 50,51,52,53) Screen_Successful Host Response Screen
@@ -6867,65 +7351,65 @@
 Role : Branch User</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>Administration</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>Customer Connect</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>General Ledger Accounting</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>Branch User</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>Account Debit - MBB General</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr">
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr">
         <is>
           <t>Employee</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="n">
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Subject\Rationalized Master Test Bed\No Regret Customer Connect\Rationization Oct23 No Regret\Administration\Reports</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B13" t="n">
         <v>926516</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>TC039 Validation of Wire Payment_Bank to Bank Wire Payment Transaction_Validate Electronic Journal, CG, IDP</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>CCQA_OPT_2023</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>TC039 Validation of Wire Payment_Bank to Bank Wire Payment Transaction_Validate Electronic Journal, CG, IDP 
 Business Capability:  Product Servicing
@@ -6946,35 +7430,35 @@
 Need CG and IDP Team support for validating the transaction entries</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="F13" t="n">
         <v>27</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>kbheral</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>MANUAL</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>Product Servicing</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>B2C - Business Banking &amp; Investment Services</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>1-High</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>Login to Customer Connect Application as 
 Branch User (FSM)
@@ -7107,22 +7591,22 @@
 and pushed to IDP at EOD batch run | Send mail to IDP team and confirm the entry in "L1 - IDP Table"~IDP Team confirms the entry in "L1 IDP Table"</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>GIVEN a commercial profile</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>WHEN Performing bank to bank wire transfer transaction Successfully</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>THEN System should capture and display transaction details information on Electronic Journal .</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>Condition:
 Login to Customer Connect Application as Branch User (FSM)
@@ -7134,7 +7618,7 @@
 Need CG and IDP Team support for validating the transaction entries</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>TC039 Validation of Wire Payment_Bank to Bank Wire Payment Transaction_Validate Electronic Journal, CG, IDP 
 Business Capability:  Product Servicing
@@ -7143,65 +7627,65 @@
 Role: Branch User(FSM)</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>Product Servicing</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>Customer Connect</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>Financials/Drafts/Wires/Money Orders</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>Branch User(FSM)</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>Bank to Bank Wire Transfer</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr">
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="n">
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Subject\Rationalized Master Test Bed\No Regret Customer Connect\Rationization Oct23 No Regret\Administration\Reports</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B14" t="n">
         <v>927857</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>TC001_Branch_Commercial_ Validation of Wire Payment_Bank to Bank Wire Payment Transaction navigate via service navigator</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>CCQA_OPT_2023</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>TC001_Branch_Commercial_ Validation of Wire Payment_Bank to Bank Wire Payment Transaction navigate via service 
 navigator 
@@ -7222,35 +7706,35 @@
 Profile should have valid bank accounts (e.g: Bank Accounts and Plans) for Bank to Bank Wire Transfer transaction</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="F14" t="n">
         <v>18</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>kbheral</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>MANUAL</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>Product Servicing</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>B2C - Business Banking &amp; Investment Services</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>1-High</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>Login to Customer Connect Application as 
 Branch User 
@@ -7328,22 +7812,22 @@
 displayed</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>GIVEN a commercial profile</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>WHEN Performing bank to bank wire transfer transaction Successfully</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>THEN System should navigate back to service navigator</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>Condition:
 Login to Customer Connect Application as Branch User 
@@ -7354,7 +7838,7 @@
 Profile should have valid bank accounts (e.g: Bank Accounts and Plans) for Bank to Bank Wire Transfer transaction</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>TC001_Branch_Commercial_ Validation of Wire Payment_Bank to Bank Wire Payment Transaction navigate via service 
 navigator 
@@ -7364,42 +7848,42 @@
 Role: Branch User</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>Product Servicing</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>Customer Connect</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>Financials/Drafts/Wires/Money Orders</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>Branch User</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>Bank to Bank Wire Transfer</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr">
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="n">
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="n">
         <v>4</v>
       </c>
     </row>
